--- a/ActivationFunctions/Sigmoid.xlsx
+++ b/ActivationFunctions/Sigmoid.xlsx
@@ -1,23 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NeuralNetwork\ActivationFunctions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942EF906-248F-439B-91EB-1FB343E916E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="23715" windowHeight="11070"/>
+    <workbookView xWindow="2115" yWindow="4245" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,17 +73,37 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -333,7 +372,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5EB-48BF-B251-7B5A87969450}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="45177472"/>
         <c:axId val="45175552"/>
       </c:scatterChart>
@@ -344,8 +396,11 @@
           <c:max val="1"/>
           <c:min val="-1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45175552"/>
         <c:crosses val="autoZero"/>
@@ -358,9 +413,12 @@
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45177472"/>
         <c:crosses val="autoZero"/>
@@ -369,9 +427,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -398,7 +458,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -417,9 +483,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +523,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -491,6 +557,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -525,9 +592,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,16 +768,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -717,8 +785,12 @@
         <f xml:space="preserve"> (1 / (1 + EXP(-A1 / 0.2)))</f>
         <v>0.99330714907571527</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f xml:space="preserve"> (1 / (1 + EXP(-A1 / 0.2)))*(1-(1 / (1 + EXP(-A1 / 0.2))))</f>
+        <v>6.6480566707900332E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.95</v>
       </c>
@@ -726,8 +798,12 @@
         <f t="shared" ref="B2:B41" si="0" xml:space="preserve"> (1 / (1 + EXP(-A2 / 0.2)))</f>
         <v>0.99142251458628805</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C41" si="1" xml:space="preserve"> (1 / (1 + EXP(-A2 / 0.2)))*(1-(1 / (1 + EXP(-A2 / 0.2))))</f>
+        <v>8.5039121576895079E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.9</v>
       </c>
@@ -735,17 +811,25 @@
         <f t="shared" si="0"/>
         <v>0.98901305736940681</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>1.0866229722225243E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.85</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (1 / (1 + EXP(-A4 / 0.2)))</f>
         <v>0.9859363729567544</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>1.3865841437634087E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -753,8 +837,12 @@
         <f t="shared" si="0"/>
         <v>0.98201379003790845</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>1.7662706213291107E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.75</v>
       </c>
@@ -762,8 +850,12 @@
         <f t="shared" si="0"/>
         <v>0.97702263008997436</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.2449410382043483E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.7</v>
       </c>
@@ -771,8 +863,12 @@
         <f t="shared" si="0"/>
         <v>0.97068776924864364</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2.8453023879735598E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.65</v>
       </c>
@@ -780,8 +876,12 @@
         <f t="shared" si="0"/>
         <v>0.96267311265587063</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3.5933590825328043E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.6</v>
       </c>
@@ -789,8 +889,12 @@
         <f t="shared" si="0"/>
         <v>0.95257412682243314</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>4.51766597309122E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.55000000000000004</v>
       </c>
@@ -798,8 +902,12 @@
         <f t="shared" si="0"/>
         <v>0.93991334982599239</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>5.6476244644874038E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -807,8 +915,12 @@
         <f t="shared" si="0"/>
         <v>0.92414181997875655</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>7.0103716545108066E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.45</v>
       </c>
@@ -816,8 +928,12 @@
         <f t="shared" si="0"/>
         <v>0.90465053510089055</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>8.6257944442562948E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.39999999999999902</v>
       </c>
@@ -825,8 +941,12 @@
         <f t="shared" si="0"/>
         <v>0.88079707797788198</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.10499358540350687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.34999999999999898</v>
       </c>
@@ -834,8 +954,12 @@
         <f t="shared" si="0"/>
         <v>0.85195280196830991</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.12612922518665562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.29999999999999899</v>
       </c>
@@ -843,8 +967,12 @@
         <f t="shared" si="0"/>
         <v>0.81757447619364287</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.14914645207033336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.249999999999999</v>
       </c>
@@ -852,8 +980,12 @@
         <f t="shared" si="0"/>
         <v>0.7772998611746903</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.17310478699249748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.19999999999999901</v>
       </c>
@@ -861,8 +993,12 @@
         <f t="shared" si="0"/>
         <v>0.7310585786300039</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.1966119332414823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.149999999999999</v>
       </c>
@@ -870,8 +1006,12 @@
         <f t="shared" si="0"/>
         <v>0.67917869917539186</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.21789499376181443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9.9999999999999006E-2</v>
       </c>
@@ -879,8 +1019,12 @@
         <f t="shared" si="0"/>
         <v>0.62245933120185348</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.23500371220159474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.9999999999998997E-2</v>
       </c>
@@ -888,8 +1032,12 @@
         <f t="shared" si="0"/>
         <v>0.56217650088579685</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.24613408273759851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -897,8 +1045,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.05</v>
       </c>
@@ -906,8 +1058,12 @@
         <f t="shared" si="0"/>
         <v>0.43782349911420193</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f xml:space="preserve"> (1 / (1 + EXP(-A22 / 0.2)))*(1-(1 / (1 + EXP(-A22 / 0.2))))</f>
+        <v>0.24613408273759835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.1</v>
       </c>
@@ -915,8 +1071,12 @@
         <f t="shared" si="0"/>
         <v>0.37754066879814541</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.23500371220159449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-0.15</v>
       </c>
@@ -924,8 +1084,12 @@
         <f t="shared" si="0"/>
         <v>0.32082130082460708</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.21789499376181407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-0.2</v>
       </c>
@@ -933,8 +1097,12 @@
         <f t="shared" si="0"/>
         <v>0.2689414213699951</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.19661193324148185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-0.25</v>
       </c>
@@ -942,8 +1110,12 @@
         <f t="shared" si="0"/>
         <v>0.22270013882530884</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.17310478699249701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-0.3</v>
       </c>
@@ -951,8 +1123,12 @@
         <f t="shared" si="0"/>
         <v>0.18242552380635638</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.14914645207033289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-0.35</v>
       </c>
@@ -960,8 +1136,12 @@
         <f t="shared" si="0"/>
         <v>0.1480471980316895</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.1261292251866552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.4</v>
       </c>
@@ -969,8 +1149,12 @@
         <f t="shared" si="0"/>
         <v>0.11920292202211755</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.10499358540350651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-0.45</v>
       </c>
@@ -978,8 +1162,12 @@
         <f t="shared" si="0"/>
         <v>9.534946489910949E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>8.6257944442562975E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-0.5</v>
       </c>
@@ -987,8 +1175,12 @@
         <f t="shared" si="0"/>
         <v>7.5858180021243546E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>7.010371654510815E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-0.55000000000000004</v>
       </c>
@@ -996,8 +1188,12 @@
         <f t="shared" si="0"/>
         <v>6.0086650174007626E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>5.6476244644874059E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-0.6</v>
       </c>
@@ -1005,8 +1201,12 @@
         <f t="shared" si="0"/>
         <v>4.7425873177566802E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>4.5176659730912151E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-0.65</v>
       </c>
@@ -1014,8 +1214,12 @@
         <f t="shared" si="0"/>
         <v>3.7326887344129457E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>3.5933590825328127E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.7</v>
       </c>
@@ -1023,8 +1227,12 @@
         <f t="shared" si="0"/>
         <v>2.9312230751356333E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>2.8453023879735573E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.75</v>
       </c>
@@ -1032,8 +1240,12 @@
         <f t="shared" si="0"/>
         <v>2.2977369910025615E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>2.2449410382043462E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-0.8</v>
       </c>
@@ -1041,8 +1253,12 @@
         <f t="shared" si="0"/>
         <v>1.7986209962091559E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>1.7662706213291118E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-0.85</v>
       </c>
@@ -1050,8 +1266,12 @@
         <f t="shared" si="0"/>
         <v>1.4063627043245475E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>1.3865841437633969E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-0.9</v>
       </c>
@@ -1059,8 +1279,12 @@
         <f t="shared" si="0"/>
         <v>1.098694263059318E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>1.0866229722225234E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-0.95</v>
       </c>
@@ -1068,14 +1292,22 @@
         <f t="shared" si="0"/>
         <v>8.5774854137119928E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>8.5039121576895513E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
         <v>6.6928509242848554E-3</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>6.6480566707901546E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1085,24 +1317,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ActivationFunctions/Sigmoid.xlsx
+++ b/ActivationFunctions/Sigmoid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NeuralNetwork\ActivationFunctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942EF906-248F-439B-91EB-1FB343E916E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EE49E3-5520-4CA9-BFBD-2B4C01D0BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2115" yWindow="4245" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,6 +423,7 @@
         <c:crossAx val="45177472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.25"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -772,7 +773,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,8 +787,8 @@
         <v>0.99330714907571527</v>
       </c>
       <c r="C1">
-        <f xml:space="preserve"> (1 / (1 + EXP(-A1 / 0.2)))*(1-(1 / (1 + EXP(-A1 / 0.2))))</f>
-        <v>6.6480566707900332E-3</v>
+        <f xml:space="preserve"> (1/0.2) * (1 / (1 + EXP(-A1 / 0.2)))*(1-(1 / (1 + EXP(-A1 / 0.2))))</f>
+        <v>3.3240283353950163E-2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,8 +800,8 @@
         <v>0.99142251458628805</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C41" si="1" xml:space="preserve"> (1 / (1 + EXP(-A2 / 0.2)))*(1-(1 / (1 + EXP(-A2 / 0.2))))</f>
-        <v>8.5039121576895079E-3</v>
+        <f t="shared" ref="C2:C41" si="1" xml:space="preserve"> (1/0.2) * (1 / (1 + EXP(-A2 / 0.2)))*(1-(1 / (1 + EXP(-A2 / 0.2))))</f>
+        <v>4.2519560788447541E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,7 +814,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>1.0866229722225243E-2</v>
+        <v>5.4331148611126208E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +827,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>1.3865841437634087E-2</v>
+        <v>6.9329207188170441E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +840,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>1.7662706213291107E-2</v>
+        <v>8.8313531066455536E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,7 +853,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>2.2449410382043483E-2</v>
+        <v>0.11224705191021742</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,7 +866,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>2.8453023879735598E-2</v>
+        <v>0.142265119398678</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +879,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>3.5933590825328043E-2</v>
+        <v>0.17966795412664022</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +892,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>4.51766597309122E-2</v>
+        <v>0.22588329865456103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,7 +905,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>5.6476244644874038E-2</v>
+        <v>0.2823812232243702</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,7 +918,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>7.0103716545108066E-2</v>
+        <v>0.35051858272554037</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,7 +931,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>8.6257944442562948E-2</v>
+        <v>0.4312897222128147</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,7 +944,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0.10499358540350687</v>
+        <v>0.52496792701753436</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,7 +957,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.12612922518665562</v>
+        <v>0.63064612593327807</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,7 +970,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.14914645207033336</v>
+        <v>0.74573226035166673</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,7 +983,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.17310478699249748</v>
+        <v>0.86552393496248747</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,7 +996,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.1966119332414823</v>
+        <v>0.98305966620741159</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,7 +1009,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.21789499376181443</v>
+        <v>1.0894749688090721</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1021,7 +1022,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.23500371220159474</v>
+        <v>1.1750185610079737</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,7 +1035,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.24613408273759851</v>
+        <v>1.2306704136879925</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1047,7 +1048,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,8 +1060,8 @@
         <v>0.43782349911420193</v>
       </c>
       <c r="C22">
-        <f xml:space="preserve"> (1 / (1 + EXP(-A22 / 0.2)))*(1-(1 / (1 + EXP(-A22 / 0.2))))</f>
-        <v>0.24613408273759835</v>
+        <f t="shared" si="1"/>
+        <v>1.2306704136879918</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,7 +1074,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.23500371220159449</v>
+        <v>1.1750185610079724</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1085,8 +1086,8 @@
         <v>0.32082130082460708</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>0.21789499376181407</v>
+        <f xml:space="preserve"> (1/0.2) * (1 / (1 + EXP(-A24 / 0.2)))*(1-(1 / (1 + EXP(-A24 / 0.2))))</f>
+        <v>1.0894749688090704</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,7 +1100,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.19661193324148185</v>
+        <v>0.98305966620740926</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,7 +1113,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.17310478699249701</v>
+        <v>0.86552393496248503</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.14914645207033289</v>
+        <v>0.7457322603516644</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1138,7 +1139,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>0.1261292251866552</v>
+        <v>0.63064612593327607</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,7 +1152,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>0.10499358540350651</v>
+        <v>0.52496792701753259</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1164,7 +1165,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>8.6257944442562975E-2</v>
+        <v>0.43128972221281492</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,7 +1178,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>7.010371654510815E-2</v>
+        <v>0.35051858272554076</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1190,7 +1191,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>5.6476244644874059E-2</v>
+        <v>0.28238122322437031</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1203,7 +1204,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>4.5176659730912151E-2</v>
+        <v>0.22588329865456078</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,7 +1217,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>3.5933590825328127E-2</v>
+        <v>0.17966795412664061</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,7 +1230,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>2.8453023879735573E-2</v>
+        <v>0.14226511939867786</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,7 +1243,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>2.2449410382043462E-2</v>
+        <v>0.11224705191021732</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,7 +1256,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>1.7662706213291118E-2</v>
+        <v>8.8313531066455592E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1268,7 +1269,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>1.3865841437633969E-2</v>
+        <v>6.9329207188169845E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1282,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>1.0866229722225234E-2</v>
+        <v>5.4331148611126173E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1294,7 +1295,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>8.5039121576895513E-3</v>
+        <v>4.2519560788447756E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,7 +1308,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>6.6480566707901546E-3</v>
+        <v>3.3240283353950774E-2</v>
       </c>
     </row>
   </sheetData>

--- a/ActivationFunctions/Sigmoid.xlsx
+++ b/ActivationFunctions/Sigmoid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NeuralNetwork\ActivationFunctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EE49E3-5520-4CA9-BFBD-2B4C01D0BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6671582-A87A-47AC-8D66-5ACC24344C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="4245" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -114,127 +114,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.39999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.34999999999999898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.29999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.249999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.19999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.9999999999999006E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.9999999999998997E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.05</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.15</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.2</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.25</c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.3</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.35</c:v>
+                  <c:v>-3.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.4</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.45</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.55000000000000004</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.6</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.65</c:v>
+                  <c:v>-6.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.7</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.75</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.8</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.85</c:v>
+                  <c:v>-8.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.9</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.95</c:v>
+                  <c:v>-9.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -270,7 +270,7 @@
                   <c:v>0.96267311265587063</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95257412682243314</c:v>
+                  <c:v>0.95257412682243336</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.93991334982599239</c:v>
@@ -282,28 +282,28 @@
                   <c:v>0.90465053510089055</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88079707797788198</c:v>
+                  <c:v>0.88079707797788231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.85195280196830991</c:v>
+                  <c:v>0.85195280196831058</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.81757447619364287</c:v>
+                  <c:v>0.81757447619364365</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7772998611746903</c:v>
+                  <c:v>0.77729986117469108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7310585786300039</c:v>
+                  <c:v>0.7310585786300049</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67917869917539186</c:v>
+                  <c:v>0.67917869917539297</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.62245933120185348</c:v>
+                  <c:v>0.62245933120185459</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56217650088579685</c:v>
+                  <c:v>0.56217650088579807</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.5</c:v>
@@ -315,7 +315,7 @@
                   <c:v>0.37754066879814541</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.32082130082460708</c:v>
+                  <c:v>0.32082130082460703</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.2689414213699951</c:v>
@@ -324,10 +324,10 @@
                   <c:v>0.22270013882530884</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18242552380635638</c:v>
+                  <c:v>0.18242552380635635</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1480471980316895</c:v>
+                  <c:v>0.14804719803168948</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.11920292202211755</c:v>
@@ -342,13 +342,13 @@
                   <c:v>6.0086650174007626E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.7425873177566802E-2</c:v>
+                  <c:v>4.7425873177566781E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3.7326887344129457E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9312230751356333E-2</c:v>
+                  <c:v>2.9312230751356319E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2.2977369910025615E-2</c:v>
@@ -363,7 +363,7 @@
                   <c:v>1.098694263059318E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.5774854137119928E-3</c:v>
+                  <c:v>8.5774854137119841E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>6.6928509242848554E-3</c:v>
@@ -393,8 +393,6 @@
         <c:axId val="45177472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -442,20 +440,1111 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$1:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$1:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3.3240283353950166E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.251956078844754E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4331148611126215E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9329207188170436E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8313531066455536E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1224705191021742E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4226511939867799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7966795412664022E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2588329865455999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8238122322437019E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5051858272554033E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3128972221281474E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2496792701753309E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3064612593327574E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4573226035166432E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6552393496248534E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8305966620740926E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10894749688090702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11750185610079725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12306704136879917</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12306704136879917</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11750185610079725</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10894749688090702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8305966620740926E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6552393496248506E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4573226035166432E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3064612593327588E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.2496792701753253E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3128972221281488E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5051858272554075E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8238122322437029E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2588329865456069E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7966795412664063E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.422651193986778E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1224705191021731E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.8313531066455588E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9329207188169846E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4331148611126171E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2519560788447713E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3240283353950773E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E976-40DA-A889-B1474854642F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="830915184"/>
+        <c:axId val="735897312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="830915184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735897312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="735897312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830915184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -475,6 +1564,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -770,43 +1895,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <f xml:space="preserve"> (1 / (1 + EXP(-A1 / 0.2)))</f>
+        <f>(1/(1+EXP(-A1/$E$1)))</f>
         <v>0.99330714907571527</v>
       </c>
       <c r="C1">
-        <f xml:space="preserve"> (1/0.2) * (1 / (1 + EXP(-A1 / 0.2)))*(1-(1 / (1 + EXP(-A1 / 0.2))))</f>
-        <v>3.3240283353950163E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <f xml:space="preserve"> (1/$E$1) * (1 / (1 + EXP(-A1 / $E$1)))*(1-(1 / (1 + EXP(-A1 / $E$1))))</f>
+        <v>3.3240283353950166E-3</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B41" si="0" xml:space="preserve"> (1 / (1 + EXP(-A2 / 0.2)))</f>
+        <f t="shared" ref="B2:B41" si="0">(1/(1+EXP(-A2/$E$1)))</f>
         <v>0.99142251458628805</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C41" si="1" xml:space="preserve"> (1/0.2) * (1 / (1 + EXP(-A2 / 0.2)))*(1-(1 / (1 + EXP(-A2 / 0.2))))</f>
-        <v>4.2519560788447541E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C2:C41" si="1" xml:space="preserve"> (1/$E$1) * (1 / (1 + EXP(-A2 / $E$1)))*(1-(1 / (1 + EXP(-A2 / $E$1))))</f>
+        <v>4.251956078844754E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
@@ -814,25 +1942,25 @@
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>5.4331148611126208E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.4331148611126215E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="B4">
-        <f xml:space="preserve"> (1 / (1 + EXP(-A4 / 0.2)))</f>
+        <f t="shared" si="0"/>
         <v>0.9859363729567544</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>6.9329207188170441E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.9329207188170436E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -840,12 +1968,12 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>8.8313531066455536E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.8313531066455536E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -853,12 +1981,12 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0.11224705191021742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1224705191021742E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -866,12 +1994,12 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0.142265119398678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4226511939867799E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -879,25 +2007,25 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0.17966795412664022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7966795412664022E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.95257412682243314</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0.22588329865456103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2588329865455999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.55000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -905,12 +2033,12 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0.2823812232243702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8238122322437019E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -918,12 +2046,12 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0.35051858272554037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5051858272554033E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -931,111 +2059,111 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0.4312897222128147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.3128972221281474E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.39999999999999902</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.88079707797788198</v>
+        <v>0.88079707797788231</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0.52496792701753436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.2496792701753309E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.34999999999999898</v>
+        <v>3.5</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.85195280196830991</v>
+        <v>0.85195280196831058</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.63064612593327807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3064612593327574E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.81757447619364287</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.74573226035166673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.4573226035166432E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.249999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.7772998611746903</v>
+        <v>0.77729986117469108</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.86552393496248747</v>
+        <v>8.6552393496248534E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.19999999999999901</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.7310585786300039</v>
+        <v>0.7310585786300049</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.98305966620741159</v>
+        <v>9.8305966620740926E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.149999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0.67917869917539186</v>
+        <v>0.67917869917539297</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>1.0894749688090721</v>
+        <v>0.10894749688090702</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9.9999999999999006E-2</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.62245933120185348</v>
+        <v>0.62245933120185459</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>1.1750185610079737</v>
+        <v>0.11750185610079725</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4.9999999999998997E-2</v>
+        <v>0.5</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.56217650088579685</v>
+        <v>0.56217650088579807</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>1.2306704136879925</v>
+        <v>0.12306704136879917</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,12 +2176,12 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -1061,12 +2189,12 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>1.2306704136879918</v>
+        <v>0.12306704136879917</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -1074,25 +2202,25 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>1.1750185610079724</v>
+        <v>0.11750185610079725</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-0.15</v>
+        <v>-1.5</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0.32082130082460708</v>
+        <v>0.32082130082460703</v>
       </c>
       <c r="C24">
-        <f xml:space="preserve"> (1/0.2) * (1 / (1 + EXP(-A24 / 0.2)))*(1-(1 / (1 + EXP(-A24 / 0.2))))</f>
-        <v>1.0894749688090704</v>
+        <f t="shared" si="1"/>
+        <v>0.10894749688090702</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-0.2</v>
+        <v>-2</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -1100,12 +2228,12 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.98305966620740926</v>
+        <v>9.8305966620740926E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -1113,38 +2241,38 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.86552393496248503</v>
+        <v>8.6552393496248506E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-0.3</v>
+        <v>-3</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.18242552380635638</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.7457322603516644</v>
+        <v>7.4573226035166432E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-0.35</v>
+        <v>-3.5</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0.1480471980316895</v>
+        <v>0.14804719803168948</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>0.63064612593327607</v>
+        <v>6.3064612593327588E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-0.4</v>
+        <v>-4</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -1152,12 +2280,12 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>0.52496792701753259</v>
+        <v>5.2496792701753253E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-0.45</v>
+        <v>-4.5</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -1165,12 +2293,12 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>0.43128972221281492</v>
+        <v>4.3128972221281488E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-0.5</v>
+        <v>-5</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -1178,12 +2306,12 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>0.35051858272554076</v>
+        <v>3.5051858272554075E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-0.55000000000000004</v>
+        <v>-5.5</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -1191,25 +2319,25 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>0.28238122322437031</v>
+        <v>2.8238122322437029E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-0.6</v>
+        <v>-6</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>4.7425873177566802E-2</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>0.22588329865456078</v>
+        <v>2.2588329865456069E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-0.65</v>
+        <v>-6.5</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -1217,25 +2345,25 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>0.17966795412664061</v>
+        <v>1.7966795412664063E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-0.7</v>
+        <v>-7</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>2.9312230751356333E-2</v>
+        <v>2.9312230751356319E-2</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>0.14226511939867786</v>
+        <v>1.422651193986778E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-0.75</v>
+        <v>-7.5</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -1243,12 +2371,12 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>0.11224705191021732</v>
+        <v>1.1224705191021731E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-0.8</v>
+        <v>-8</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -1256,12 +2384,12 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>8.8313531066455592E-2</v>
+        <v>8.8313531066455588E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-0.85</v>
+        <v>-8.5</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -1269,12 +2397,12 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>6.9329207188169845E-2</v>
+        <v>6.9329207188169846E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-0.9</v>
+        <v>-9</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -1282,25 +2410,25 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>5.4331148611126173E-2</v>
+        <v>5.4331148611126171E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-0.95</v>
+        <v>-9.5</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>8.5774854137119928E-3</v>
+        <v>8.5774854137119841E-3</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>4.2519560788447756E-2</v>
+        <v>4.2519560788447713E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -1308,7 +2436,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>3.3240283353950774E-2</v>
+        <v>3.3240283353950773E-3</v>
       </c>
     </row>
   </sheetData>

--- a/ActivationFunctions/Sigmoid.xlsx
+++ b/ActivationFunctions/Sigmoid.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NeuralNetwork\ActivationFunctions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6671582-A87A-47AC-8D66-5ACC24344C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,9 +28,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,25 +83,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -372,53 +358,40 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5EB-48BF-B251-7B5A87969450}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="45177472"/>
-        <c:axId val="45175552"/>
+        <c:dLbls/>
+        <c:axId val="109936640"/>
+        <c:axId val="109938176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45177472"/>
+        <c:axId val="109936640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45175552"/>
+        <c:crossAx val="109938176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45175552"/>
+        <c:axId val="109938176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45177472"/>
+        <c:crossAx val="109936640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
@@ -426,36 +399,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -484,12 +446,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -782,29 +742,21 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E976-40DA-A889-B1474854642F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="830915184"/>
-        <c:axId val="735897312"/>
+        <c:dLbls/>
+        <c:axId val="122810368"/>
+        <c:axId val="122811904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="830915184"/>
+        <c:axId val="122810368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -822,7 +774,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -857,16 +808,15 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="735897312"/>
+        <c:crossAx val="122811904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="735897312"/>
+        <c:axId val="122811904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -884,7 +834,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -919,7 +868,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830915184"/>
+        <c:crossAx val="122810368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -933,14 +882,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -969,7 +917,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1551,7 +1499,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1535,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,9 +1557,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1649,7 +1597,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1683,7 +1631,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1718,10 +1665,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1894,16 +1840,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>10</v>
       </c>
@@ -1919,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>9.5</v>
       </c>
@@ -1932,7 +1878,7 @@
         <v>4.251956078844754E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1945,7 +1891,7 @@
         <v>5.4331148611126215E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>8.5</v>
       </c>
@@ -1958,7 +1904,7 @@
         <v>6.9329207188170436E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1971,7 +1917,7 @@
         <v>8.8313531066455536E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>7.5</v>
       </c>
@@ -1984,7 +1930,7 @@
         <v>1.1224705191021742E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1997,7 +1943,7 @@
         <v>1.4226511939867799E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6.5</v>
       </c>
@@ -2010,7 +1956,7 @@
         <v>1.7966795412664022E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2023,7 +1969,7 @@
         <v>2.2588329865455999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>5.5</v>
       </c>
@@ -2036,7 +1982,7 @@
         <v>2.8238122322437019E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2049,7 +1995,7 @@
         <v>3.5051858272554033E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>4.5</v>
       </c>
@@ -2062,7 +2008,7 @@
         <v>4.3128972221281474E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2075,7 +2021,7 @@
         <v>5.2496792701753309E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>3.5</v>
       </c>
@@ -2088,7 +2034,7 @@
         <v>6.3064612593327574E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2101,7 +2047,7 @@
         <v>7.4573226035166432E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2.5</v>
       </c>
@@ -2114,7 +2060,7 @@
         <v>8.6552393496248534E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2127,7 +2073,7 @@
         <v>9.8305966620740926E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1.5</v>
       </c>
@@ -2140,7 +2086,7 @@
         <v>0.10894749688090702</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2153,7 +2099,7 @@
         <v>0.11750185610079725</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -2166,7 +2112,7 @@
         <v>0.12306704136879917</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2179,7 +2125,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>-0.5</v>
       </c>
@@ -2192,7 +2138,7 @@
         <v>0.12306704136879917</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>-1</v>
       </c>
@@ -2205,7 +2151,7 @@
         <v>0.11750185610079725</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>-1.5</v>
       </c>
@@ -2218,7 +2164,7 @@
         <v>0.10894749688090702</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -2231,7 +2177,7 @@
         <v>9.8305966620740926E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>-2.5</v>
       </c>
@@ -2244,7 +2190,7 @@
         <v>8.6552393496248506E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>-3</v>
       </c>
@@ -2257,7 +2203,7 @@
         <v>7.4573226035166432E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>-3.5</v>
       </c>
@@ -2270,7 +2216,7 @@
         <v>6.3064612593327588E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>-4</v>
       </c>
@@ -2283,7 +2229,7 @@
         <v>5.2496792701753253E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>-4.5</v>
       </c>
@@ -2296,7 +2242,7 @@
         <v>4.3128972221281488E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -2309,7 +2255,7 @@
         <v>3.5051858272554075E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>-5.5</v>
       </c>
@@ -2322,7 +2268,7 @@
         <v>2.8238122322437029E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>-6</v>
       </c>
@@ -2335,7 +2281,7 @@
         <v>2.2588329865456069E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>-6.5</v>
       </c>
@@ -2348,7 +2294,7 @@
         <v>1.7966795412664063E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>-7</v>
       </c>
@@ -2361,7 +2307,7 @@
         <v>1.422651193986778E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>-7.5</v>
       </c>
@@ -2374,7 +2320,7 @@
         <v>1.1224705191021731E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>-8</v>
       </c>
@@ -2387,7 +2333,7 @@
         <v>8.8313531066455588E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>-8.5</v>
       </c>
@@ -2400,7 +2346,7 @@
         <v>6.9329207188169846E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>-9</v>
       </c>
@@ -2413,7 +2359,7 @@
         <v>5.4331148611126171E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>-9.5</v>
       </c>
@@ -2426,7 +2372,7 @@
         <v>4.2519560788447713E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>-10</v>
       </c>
@@ -2446,24 +2392,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ActivationFunctions/Sigmoid.xlsx
+++ b/ActivationFunctions/Sigmoid.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NeuralNetwork\ActivationFunctions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D8DD1-B611-4541-8BB5-6114E4BF35C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,13 +34,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +85,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -358,13 +372,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5EB-48BF-B251-7B5A87969450}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="109936640"/>
         <c:axId val="109938176"/>
       </c:scatterChart>
@@ -373,8 +394,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109938176"/>
         <c:crosses val="autoZero"/>
@@ -387,9 +411,12 @@
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109936640"/>
         <c:crosses val="autoZero"/>
@@ -399,10 +426,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -413,11 +441,21 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -446,10 +484,12 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -742,13 +782,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E976-40DA-A889-B1474854642F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="122810368"/>
         <c:axId val="122811904"/>
       </c:scatterChart>
@@ -757,6 +804,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -774,6 +822,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -817,6 +866,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -834,6 +884,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -882,13 +933,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -923,562 +975,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1499,7 +995,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1031,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,9 +1053,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1597,7 +1093,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1631,6 +1127,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1665,9 +1162,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1840,16 +1338,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
@@ -1865,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9.5</v>
       </c>
@@ -1878,7 +1376,7 @@
         <v>4.251956078844754E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1891,7 +1389,7 @@
         <v>5.4331148611126215E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8.5</v>
       </c>
@@ -1904,7 +1402,7 @@
         <v>6.9329207188170436E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1917,7 +1415,7 @@
         <v>8.8313531066455536E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.5</v>
       </c>
@@ -1930,7 +1428,7 @@
         <v>1.1224705191021742E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1943,7 +1441,7 @@
         <v>1.4226511939867799E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.5</v>
       </c>
@@ -1956,7 +1454,7 @@
         <v>1.7966795412664022E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1969,7 +1467,7 @@
         <v>2.2588329865455999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.5</v>
       </c>
@@ -1982,7 +1480,7 @@
         <v>2.8238122322437019E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1995,7 +1493,7 @@
         <v>3.5051858272554033E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.5</v>
       </c>
@@ -2008,7 +1506,7 @@
         <v>4.3128972221281474E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2021,7 +1519,7 @@
         <v>5.2496792701753309E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.5</v>
       </c>
@@ -2034,7 +1532,7 @@
         <v>6.3064612593327574E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2047,7 +1545,7 @@
         <v>7.4573226035166432E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.5</v>
       </c>
@@ -2060,7 +1558,7 @@
         <v>8.6552393496248534E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2073,7 +1571,7 @@
         <v>9.8305966620740926E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.5</v>
       </c>
@@ -2086,7 +1584,7 @@
         <v>0.10894749688090702</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2099,7 +1597,7 @@
         <v>0.11750185610079725</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -2112,7 +1610,7 @@
         <v>0.12306704136879917</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2125,7 +1623,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.5</v>
       </c>
@@ -2138,7 +1636,7 @@
         <v>0.12306704136879917</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1</v>
       </c>
@@ -2151,7 +1649,7 @@
         <v>0.11750185610079725</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.5</v>
       </c>
@@ -2164,7 +1662,7 @@
         <v>0.10894749688090702</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -2177,7 +1675,7 @@
         <v>9.8305966620740926E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-2.5</v>
       </c>
@@ -2190,7 +1688,7 @@
         <v>8.6552393496248506E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3</v>
       </c>
@@ -2203,7 +1701,7 @@
         <v>7.4573226035166432E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.5</v>
       </c>
@@ -2216,7 +1714,7 @@
         <v>6.3064612593327588E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-4</v>
       </c>
@@ -2229,7 +1727,7 @@
         <v>5.2496792701753253E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-4.5</v>
       </c>
@@ -2242,7 +1740,7 @@
         <v>4.3128972221281488E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -2255,7 +1753,7 @@
         <v>3.5051858272554075E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-5.5</v>
       </c>
@@ -2268,7 +1766,7 @@
         <v>2.8238122322437029E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-6</v>
       </c>
@@ -2281,7 +1779,7 @@
         <v>2.2588329865456069E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-6.5</v>
       </c>
@@ -2294,7 +1792,7 @@
         <v>1.7966795412664063E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-7</v>
       </c>
@@ -2307,7 +1805,7 @@
         <v>1.422651193986778E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-7.5</v>
       </c>
@@ -2320,7 +1818,7 @@
         <v>1.1224705191021731E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-8</v>
       </c>
@@ -2333,7 +1831,7 @@
         <v>8.8313531066455588E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-8.5</v>
       </c>
@@ -2346,7 +1844,7 @@
         <v>6.9329207188169846E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-9</v>
       </c>
@@ -2359,7 +1857,7 @@
         <v>5.4331148611126171E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-9.5</v>
       </c>
@@ -2372,7 +1870,7 @@
         <v>4.2519560788447713E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-10</v>
       </c>
@@ -2392,24 +1890,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ActivationFunctions/Sigmoid.xlsx
+++ b/ActivationFunctions/Sigmoid.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NeuralNetwork\ActivationFunctions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D8DD1-B611-4541-8BB5-6114E4BF35C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,8 +29,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,25 +79,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -246,179 +228,166 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>0.99999999439720355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9999999847700205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999995860062441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99999988746483792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99999969409777301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99999916847197223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99999773967570205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99999385582539779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99998329857815205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99995460213129761</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99987660542401369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99966464986953363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9990889488055994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99752737684336534</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.99330714907571527</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99142251458628805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98901305736940681</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9859363729567544</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="15">
                   <c:v>0.98201379003790845</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97702263008997436</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97068776924864364</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96267311265587063</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>0.95257412682243336</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93991334982599239</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92414181997875655</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.90465053510089055</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>0.88079707797788231</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.85195280196831058</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.81757447619364365</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.77729986117469108</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>0.7310585786300049</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.67917869917539297</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.62245933120185459</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56217650088579807</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2689414213699951</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.43782349911420193</c:v>
+                  <c:v>0.11920292202211755</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.37754066879814541</c:v>
+                  <c:v>4.7425873177566781E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.32082130082460703</c:v>
+                  <c:v>1.7986209962091559E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2689414213699951</c:v>
+                  <c:v>6.6928509242848554E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.22270013882530884</c:v>
+                  <c:v>2.4726231566347743E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18242552380635635</c:v>
+                  <c:v>9.1105119440064539E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.14804719803168948</c:v>
+                  <c:v>3.3535013046647811E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.11920292202211755</c:v>
+                  <c:v>1.2339457598623172E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.534946489910949E-2</c:v>
+                  <c:v>4.5397868702434395E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.5858180021243546E-2</c:v>
+                  <c:v>1.6701421848095181E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0086650174007626E-2</c:v>
+                  <c:v>6.1441746022147182E-6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.7425873177566781E-2</c:v>
+                  <c:v>2.2603242979035746E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.7326887344129457E-2</c:v>
+                  <c:v>8.3152802766413209E-7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9312230751356319E-2</c:v>
+                  <c:v>3.0590222692562472E-7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2977369910025615E-2</c:v>
+                  <c:v>1.1253516205509499E-7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7986209962091559E-2</c:v>
+                  <c:v>4.1399375473943306E-8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4063627043245475E-2</c:v>
+                  <c:v>1.5229979512760349E-8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.098694263059318E-2</c:v>
+                  <c:v>5.6027964061459406E-9</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.5774854137119841E-3</c:v>
+                  <c:v>2.0611536181902037E-9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.6928509242848554E-3</c:v>
+                  <c:v>7.5825604221623851E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5EB-48BF-B251-7B5A87969450}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="109936640"/>
-        <c:axId val="109938176"/>
+        <c:dLbls/>
+        <c:axId val="129829120"/>
+        <c:axId val="129835008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109936640"/>
+        <c:axId val="129829120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109938176"/>
+        <c:crossAx val="129835008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109938176"/>
+        <c:axId val="129835008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109936640"/>
+        <c:crossAx val="129829120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
@@ -426,36 +395,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -484,12 +442,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -656,155 +612,147 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.3240283353950166E-3</c:v>
+                  <c:v>1.1205592835239931E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.251956078844754E-3</c:v>
+                  <c:v>3.0459958535624582E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4331148611126215E-3</c:v>
+                  <c:v>8.2798747760845275E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9329207188170436E-3</c:v>
+                  <c:v>2.2507029882742626E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8313531066455536E-3</c:v>
+                  <c:v>6.1180426683477429E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1224705191021742E-2</c:v>
+                  <c:v>1.6630546726564625E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4226511939867799E-2</c:v>
+                  <c:v>4.5206383777751979E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7966795412664022E-2</c:v>
+                  <c:v>1.2288273702651487E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2588329865455999E-2</c:v>
+                  <c:v>3.3402285820923139E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8238122322437019E-2</c:v>
+                  <c:v>9.079161547181531E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5051858272554033E-2</c:v>
+                  <c:v>2.4675869952986049E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3128972221281474E-2</c:v>
+                  <c:v>6.704753415127363E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2496792701753309E-2</c:v>
+                  <c:v>1.8204423602435681E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3064612593327574E-2</c:v>
+                  <c:v>4.9330185827198619E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4573226035166432E-2</c:v>
+                  <c:v>1.3296113341580066E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.6552393496248534E-2</c:v>
+                  <c:v>3.5325412426582214E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.8305966620740926E-2</c:v>
+                  <c:v>9.0353319461823997E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10894749688090702</c:v>
+                  <c:v>0.20998717080701323</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11750185610079725</c:v>
+                  <c:v>0.3932238664829637</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12306704136879917</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.125</c:v>
+                  <c:v>0.3932238664829637</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.12306704136879917</c:v>
+                  <c:v>0.20998717080701301</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11750185610079725</c:v>
+                  <c:v>9.0353319461824275E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.10894749688090702</c:v>
+                  <c:v>3.5325412426582235E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.8305966620740926E-2</c:v>
+                  <c:v>1.3296113341580309E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.6552393496248506E-2</c:v>
+                  <c:v>4.9330185827200961E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4573226035166432E-2</c:v>
+                  <c:v>1.8204423602436531E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.3064612593327588E-2</c:v>
+                  <c:v>6.7047534151294848E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2496792701753253E-2</c:v>
+                  <c:v>2.4675869952969781E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.3128972221281488E-2</c:v>
+                  <c:v>9.0791615471903347E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5051858272554075E-2</c:v>
+                  <c:v>3.3402285821206868E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.8238122322437029E-2</c:v>
+                  <c:v>1.2288273702666351E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2588329865456069E-2</c:v>
+                  <c:v>4.5206383776752853E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7966795412664063E-2</c:v>
+                  <c:v>1.6630546724505427E-6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.422651193986778E-2</c:v>
+                  <c:v>6.118042666989046E-7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1224705191021731E-2</c:v>
+                  <c:v>2.2507029878186457E-7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.8313531066455588E-3</c:v>
+                  <c:v>8.2798747520070032E-8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.9329207188169846E-3</c:v>
+                  <c:v>3.0459958561616146E-8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.4331148611126171E-3</c:v>
+                  <c:v>1.1205592749509225E-8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.2519560788447713E-3</c:v>
+                  <c:v>4.1223072278836992E-9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.3240283353950773E-3</c:v>
+                  <c:v>1.5165120832825725E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E976-40DA-A889-B1474854642F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="122810368"/>
-        <c:axId val="122811904"/>
+        <c:dLbls/>
+        <c:axId val="131864832"/>
+        <c:axId val="131870720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122810368"/>
+        <c:axId val="131864832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -822,7 +770,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -857,16 +804,15 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122811904"/>
+        <c:crossAx val="131870720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122811904"/>
+        <c:axId val="131870720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -884,7 +830,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -919,7 +864,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122810368"/>
+        <c:crossAx val="131864832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -933,14 +878,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -969,7 +913,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -995,7 +939,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,7 +975,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,9 +997,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1093,7 +1037,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1127,7 +1071,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1162,10 +1105,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1338,549 +1280,555 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>10</v>
       </c>
       <c r="B1">
-        <f>(1/(1+EXP(-A1/$E$1)))</f>
-        <v>0.99330714907571527</v>
+        <f>(1/(1+EXP((-(A1+$E$2))/$E$1)))</f>
+        <v>0.99999999439720355</v>
       </c>
       <c r="C1">
-        <f xml:space="preserve"> (1/$E$1) * (1 / (1 + EXP(-A1 / $E$1)))*(1-(1 / (1 + EXP(-A1 / $E$1))))</f>
-        <v>3.3240283353950166E-3</v>
+        <f>(1/$E$1)*(1/(1+EXP((-A1-$E$2)/$E$1)))*(1-(1/(1+EXP((-A1-$E$2)/$E$1))))</f>
+        <v>1.1205592835239931E-8</v>
       </c>
       <c r="E1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>9.5</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B41" si="0">(1/(1+EXP(-A2/$E$1)))</f>
-        <v>0.99142251458628805</v>
+        <f t="shared" ref="B2:B41" si="0">(1/(1+EXP((-(A2+$E$2))/$E$1)))</f>
+        <v>0.9999999847700205</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C41" si="1" xml:space="preserve"> (1/$E$1) * (1 / (1 + EXP(-A2 / $E$1)))*(1-(1 / (1 + EXP(-A2 / $E$1))))</f>
-        <v>4.251956078844754E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C2:C41" si="1">(1/$E$1)*(1/(1+EXP((-A2-$E$2)/$E$1)))*(1-(1/(1+EXP((-A2-$E$2)/$E$1))))</f>
+        <v>3.0459958535624582E-8</v>
+      </c>
+      <c r="E2">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>9</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>0.98901305736940681</v>
+        <v>0.99999995860062441</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>5.4331148611126215E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.2798747760845275E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>8.5</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.9859363729567544</v>
+        <v>0.99999988746483792</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>6.9329207188170436E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.2507029882742626E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.98201379003790845</v>
+        <v>0.99999969409777301</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>8.8313531066455536E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.1180426683477429E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>7.5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.97702263008997436</v>
+        <v>0.99999916847197223</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>1.1224705191021742E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6630546726564625E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.97068776924864364</v>
+        <v>0.99999773967570205</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>1.4226511939867799E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.5206383777751979E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6.5</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.96267311265587063</v>
+        <v>0.99999385582539779</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>1.7966795412664022E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.2288273702651487E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.95257412682243336</v>
+        <v>0.99998329857815205</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>2.2588329865455999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.3402285820923139E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>5.5</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0.93991334982599239</v>
+        <v>0.99995460213129761</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>2.8238122322437019E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.079161547181531E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.92414181997875655</v>
+        <v>0.99987660542401369</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>3.5051858272554033E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.4675869952986049E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>4.5</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.90465053510089055</v>
+        <v>0.99966464986953363</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>4.3128972221281474E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.704753415127363E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.88079707797788231</v>
+        <v>0.9990889488055994</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>5.2496792701753309E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8204423602435681E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>3.5</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.85195280196831058</v>
+        <v>0.99752737684336534</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>6.3064612593327574E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.9330185827198619E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.81757447619364365</v>
+        <v>0.99330714907571527</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>7.4573226035166432E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3296113341580066E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2.5</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.77729986117469108</v>
+        <v>0.98201379003790845</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>8.6552393496248534E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5325412426582214E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.7310585786300049</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>9.8305966620740926E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.0353319461823997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1.5</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0.67917869917539297</v>
+        <v>0.88079707797788231</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.10894749688090702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.20998717080701323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.62245933120185459</v>
+        <v>0.7310585786300049</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.11750185610079725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3932238664829637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>0.5</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.56217650088579807</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.12306704136879917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>0</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.2689414213699951</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3932238664829637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>-0.5</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0.43782349911420193</v>
+        <v>0.11920292202211755</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.12306704136879917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.20998717080701301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>-1</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0.37754066879814541</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.11750185610079725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.0353319461824275E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>-1.5</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0.32082130082460703</v>
+        <v>1.7986209962091559E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>0.10894749688090702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5325412426582235E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>-2</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0.2689414213699951</v>
+        <v>6.6928509242848554E-3</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>9.8305966620740926E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3296113341580309E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>-2.5</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0.22270013882530884</v>
+        <v>2.4726231566347743E-3</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>8.6552393496248506E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9330185827200961E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>-3</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.18242552380635635</v>
+        <v>9.1105119440064539E-4</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>7.4573226035166432E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8204423602436531E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>-3.5</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0.14804719803168948</v>
+        <v>3.3535013046647811E-4</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>6.3064612593327588E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.7047534151294848E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>-4</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.11920292202211755</v>
+        <v>1.2339457598623172E-4</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>5.2496792701753253E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4675869952969781E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>-4.5</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>9.534946489910949E-2</v>
+        <v>4.5397868702434395E-5</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>4.3128972221281488E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.0791615471903347E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>-5</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>7.5858180021243546E-2</v>
+        <v>1.6701421848095181E-5</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>3.5051858272554075E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3402285821206868E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>-5.5</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>6.0086650174007626E-2</v>
+        <v>6.1441746022147182E-6</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>2.8238122322437029E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2288273702666351E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>-6</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>4.7425873177566781E-2</v>
+        <v>2.2603242979035746E-6</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>2.2588329865456069E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5206383776752853E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>-6.5</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>3.7326887344129457E-2</v>
+        <v>8.3152802766413209E-7</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>1.7966795412664063E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6630546724505427E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>-7</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>2.9312230751356319E-2</v>
+        <v>3.0590222692562472E-7</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>1.422651193986778E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.118042666989046E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>-7.5</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>2.2977369910025615E-2</v>
+        <v>1.1253516205509499E-7</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>1.1224705191021731E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2507029878186457E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>-8</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1.7986209962091559E-2</v>
+        <v>4.1399375473943306E-8</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>8.8313531066455588E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.2798747520070032E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>-8.5</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>1.4063627043245475E-2</v>
+        <v>1.5229979512760349E-8</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>6.9329207188169846E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.0459958561616146E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>-9</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>1.098694263059318E-2</v>
+        <v>5.6027964061459406E-9</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>5.4331148611126171E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1205592749509225E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>-9.5</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>8.5774854137119841E-3</v>
+        <v>2.0611536181902037E-9</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>4.2519560788447713E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1223072278836992E-9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>-10</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>6.6928509242848554E-3</v>
+        <v>7.5825604221623851E-10</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>3.3240283353950773E-3</v>
+        <v>1.5165120832825725E-9</v>
       </c>
     </row>
   </sheetData>
@@ -1890,24 +1838,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ActivationFunctions/Sigmoid.xlsx
+++ b/ActivationFunctions/Sigmoid.xlsx
@@ -228,127 +228,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.99999999439720355</c:v>
+                  <c:v>0.99966464986953363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9999999847700205</c:v>
+                  <c:v>0.9994472213630764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999995860062441</c:v>
+                  <c:v>0.9990889488055994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99999988746483792</c:v>
+                  <c:v>0.99849881774326299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99999969409777301</c:v>
+                  <c:v>0.99752737684336534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999916847197223</c:v>
+                  <c:v>0.99592986228410396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999773967570205</c:v>
+                  <c:v>0.99330714907571527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999385582539779</c:v>
+                  <c:v>0.98901305736940681</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99998329857815205</c:v>
+                  <c:v>0.98201379003790845</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99995460213129761</c:v>
+                  <c:v>0.97068776924864364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99987660542401369</c:v>
+                  <c:v>0.95257412682243336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99966464986953363</c:v>
+                  <c:v>0.92414181997875655</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9990889488055994</c:v>
+                  <c:v>0.88079707797788231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99752737684336534</c:v>
+                  <c:v>0.81757447619364365</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99330714907571527</c:v>
+                  <c:v>0.7310585786300049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98201379003790845</c:v>
+                  <c:v>0.62245933120185459</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.95257412682243336</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88079707797788231</c:v>
+                  <c:v>0.37754066879814541</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7310585786300049</c:v>
+                  <c:v>0.2689414213699951</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>0.18242552380635635</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2689414213699951</c:v>
+                  <c:v>0.11920292202211755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.11920292202211755</c:v>
+                  <c:v>7.5858180021243546E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4.7425873177566781E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>2.9312230751356319E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1.7986209962091559E-2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
+                  <c:v>1.098694263059318E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>6.6928509242848554E-3</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
+                  <c:v>4.0701377158961277E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2.4726231566347743E-3</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
+                  <c:v>1.5011822567369917E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>9.1105119440064539E-4</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
+                  <c:v>5.5277863692359955E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>3.3535013046647811E-4</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
+                  <c:v>2.0342697805520653E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1.2339457598623172E-4</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
+                  <c:v>7.4846227510611229E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>4.5397868702434395E-5</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
+                  <c:v>2.7535691114583473E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>1.6701421848095181E-5</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="39">
+                  <c:v>1.0129990980873921E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>6.1441746022147182E-6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.2603242979035746E-6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.3152802766413209E-7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.0590222692562472E-7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.1253516205509499E-7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.1399375473943306E-8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.5229979512760349E-8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.6027964061459406E-9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.0611536181902037E-9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.5825604221623851E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,24 +360,23 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="129829120"/>
-        <c:axId val="129835008"/>
+        <c:axId val="127453824"/>
+        <c:axId val="127467904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129829120"/>
+        <c:axId val="127453824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129835008"/>
+        <c:crossAx val="127467904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129835008"/>
+        <c:axId val="127467904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -387,7 +386,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129829120"/>
+        <c:crossAx val="127453824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
@@ -402,7 +401,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -612,127 +611,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1.1205592835239931E-8</c:v>
+                  <c:v>3.3523767075636815E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0459958535624582E-8</c:v>
+                  <c:v>5.5247307270216183E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2798747760845275E-8</c:v>
+                  <c:v>9.1022118012178404E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2507029882742626E-7</c:v>
+                  <c:v>1.4989287085690683E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1180426683477429E-7</c:v>
+                  <c:v>2.4665092913599309E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6630546726564625E-6</c:v>
+                  <c:v>4.0535716948696789E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5206383777751979E-6</c:v>
+                  <c:v>6.6480566707900332E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2288273702651487E-5</c:v>
+                  <c:v>1.0866229722225243E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3402285820923139E-5</c:v>
+                  <c:v>1.7662706213291107E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.079161547181531E-5</c:v>
+                  <c:v>2.8453023879735598E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4675869952986049E-4</c:v>
+                  <c:v>4.5176659730911999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.704753415127363E-4</c:v>
+                  <c:v>7.0103716545108066E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8204423602435681E-3</c:v>
+                  <c:v>0.10499358540350662</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9330185827198619E-3</c:v>
+                  <c:v>0.14914645207033286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3296113341580066E-2</c:v>
+                  <c:v>0.19661193324148185</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5325412426582214E-2</c:v>
+                  <c:v>0.23500371220159449</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0353319461823997E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20998717080701323</c:v>
+                  <c:v>0.23500371220159449</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3932238664829637</c:v>
+                  <c:v>0.19661193324148185</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>0.14914645207033286</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3932238664829637</c:v>
+                  <c:v>0.10499358540350651</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20998717080701301</c:v>
+                  <c:v>7.010371654510815E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0353319461824275E-2</c:v>
+                  <c:v>4.5176659730912137E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5325412426582235E-2</c:v>
+                  <c:v>2.845302387973556E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3296113341580309E-2</c:v>
+                  <c:v>1.7662706213291118E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.9330185827200961E-3</c:v>
+                  <c:v>1.0866229722225234E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8204423602436531E-3</c:v>
+                  <c:v>6.6480566707901546E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.7047534151294848E-4</c:v>
+                  <c:v>4.0535716948697674E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4675869952969781E-4</c:v>
+                  <c:v>2.466509291360048E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.0791615471903347E-5</c:v>
+                  <c:v>1.4989287085690496E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.3402285821206868E-5</c:v>
+                  <c:v>9.1022118012182654E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2288273702666351E-5</c:v>
+                  <c:v>5.5247307270216042E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.5206383776752853E-6</c:v>
+                  <c:v>3.3523767075647424E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6630546724505427E-6</c:v>
+                  <c:v>2.0338559551980585E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.118042666989046E-7</c:v>
+                  <c:v>1.2337934976484891E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2507029878186457E-7</c:v>
+                  <c:v>7.4840625552838663E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.2798747520070032E-8</c:v>
+                  <c:v>4.5395807735951673E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.0459958561616146E-8</c:v>
+                  <c:v>2.7534932900298316E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1205592749509225E-8</c:v>
+                  <c:v>1.6701142910603434E-5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.1223072278836992E-9</c:v>
+                  <c:v>1.012988836415665E-5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5165120832825725E-9</c:v>
+                  <c:v>6.1441368513331755E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,12 +743,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="131864832"/>
-        <c:axId val="131870720"/>
+        <c:axId val="127531648"/>
+        <c:axId val="128459136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131864832"/>
+        <c:axId val="127531648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,12 +802,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131870720"/>
+        <c:crossAx val="128459136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131870720"/>
+        <c:axId val="128459136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +862,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131864832"/>
+        <c:crossAx val="127531648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -913,7 +911,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -939,7 +937,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -975,7 +973,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1282,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B41"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1298,14 +1296,14 @@
       </c>
       <c r="B1">
         <f>(1/(1+EXP((-(A1+$E$2))/$E$1)))</f>
-        <v>0.99999999439720355</v>
+        <v>0.99966464986953363</v>
       </c>
       <c r="C1">
         <f>(1/$E$1)*(1/(1+EXP((-A1-$E$2)/$E$1)))*(1-(1/(1+EXP((-A1-$E$2)/$E$1))))</f>
-        <v>1.1205592835239931E-8</v>
+        <v>3.3523767075636815E-4</v>
       </c>
       <c r="E1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1314,14 +1312,14 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B41" si="0">(1/(1+EXP((-(A2+$E$2))/$E$1)))</f>
-        <v>0.9999999847700205</v>
+        <v>0.9994472213630764</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C41" si="1">(1/$E$1)*(1/(1+EXP((-A2-$E$2)/$E$1)))*(1-(1/(1+EXP((-A2-$E$2)/$E$1))))</f>
-        <v>3.0459958535624582E-8</v>
+        <v>5.5247307270216183E-4</v>
       </c>
       <c r="E2">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1330,11 +1328,11 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>0.99999995860062441</v>
+        <v>0.9990889488055994</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>8.2798747760845275E-8</v>
+        <v>9.1022118012178404E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1343,11 +1341,11 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.99999988746483792</v>
+        <v>0.99849881774326299</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>2.2507029882742626E-7</v>
+        <v>1.4989287085690683E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1356,11 +1354,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.99999969409777301</v>
+        <v>0.99752737684336534</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>6.1180426683477429E-7</v>
+        <v>2.4665092913599309E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1369,11 +1367,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.99999916847197223</v>
+        <v>0.99592986228410396</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>1.6630546726564625E-6</v>
+        <v>4.0535716948696789E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1382,11 +1380,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.99999773967570205</v>
+        <v>0.99330714907571527</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>4.5206383777751979E-6</v>
+        <v>6.6480566707900332E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1395,11 +1393,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.99999385582539779</v>
+        <v>0.98901305736940681</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>1.2288273702651487E-5</v>
+        <v>1.0866229722225243E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1408,11 +1406,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.99998329857815205</v>
+        <v>0.98201379003790845</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>3.3402285820923139E-5</v>
+        <v>1.7662706213291107E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1421,11 +1419,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0.99995460213129761</v>
+        <v>0.97068776924864364</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>9.079161547181531E-5</v>
+        <v>2.8453023879735598E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1434,11 +1432,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.99987660542401369</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>2.4675869952986049E-4</v>
+        <v>4.5176659730911999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1447,11 +1445,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.99966464986953363</v>
+        <v>0.92414181997875655</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>6.704753415127363E-4</v>
+        <v>7.0103716545108066E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1460,11 +1458,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.9990889488055994</v>
+        <v>0.88079707797788231</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>1.8204423602435681E-3</v>
+        <v>0.10499358540350662</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1473,11 +1471,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.99752737684336534</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>4.9330185827198619E-3</v>
+        <v>0.14914645207033286</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1486,11 +1484,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.99330714907571527</v>
+        <v>0.7310585786300049</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>1.3296113341580066E-2</v>
+        <v>0.19661193324148185</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1499,11 +1497,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.98201379003790845</v>
+        <v>0.62245933120185459</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>3.5325412426582214E-2</v>
+        <v>0.23500371220159449</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1512,11 +1510,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.95257412682243336</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>9.0353319461823997E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1525,11 +1523,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0.88079707797788231</v>
+        <v>0.37754066879814541</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.20998717080701323</v>
+        <v>0.23500371220159449</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1538,11 +1536,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.7310585786300049</v>
+        <v>0.2689414213699951</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.3932238664829637</v>
+        <v>0.19661193324148185</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1551,11 +1549,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.14914645207033286</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1564,11 +1562,11 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0.2689414213699951</v>
+        <v>0.11920292202211755</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.3932238664829637</v>
+        <v>0.10499358540350651</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1577,11 +1575,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0.11920292202211755</v>
+        <v>7.5858180021243546E-2</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.20998717080701301</v>
+        <v>7.010371654510815E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1594,7 +1592,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>9.0353319461824275E-2</v>
+        <v>4.5176659730912137E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1603,11 +1601,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1.7986209962091559E-2</v>
+        <v>2.9312230751356319E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>3.5325412426582235E-2</v>
+        <v>2.845302387973556E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1616,11 +1614,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>6.6928509242848554E-3</v>
+        <v>1.7986209962091559E-2</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>1.3296113341580309E-2</v>
+        <v>1.7662706213291118E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1629,11 +1627,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>2.4726231566347743E-3</v>
+        <v>1.098694263059318E-2</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>4.9330185827200961E-3</v>
+        <v>1.0866229722225234E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1642,11 +1640,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>9.1105119440064539E-4</v>
+        <v>6.6928509242848554E-3</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>1.8204423602436531E-3</v>
+        <v>6.6480566707901546E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1655,11 +1653,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>3.3535013046647811E-4</v>
+        <v>4.0701377158961277E-3</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>6.7047534151294848E-4</v>
+        <v>4.0535716948697674E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1668,11 +1666,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1.2339457598623172E-4</v>
+        <v>2.4726231566347743E-3</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>2.4675869952969781E-4</v>
+        <v>2.466509291360048E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1681,11 +1679,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>4.5397868702434395E-5</v>
+        <v>1.5011822567369917E-3</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>9.0791615471903347E-5</v>
+        <v>1.4989287085690496E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1694,11 +1692,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1.6701421848095181E-5</v>
+        <v>9.1105119440064539E-4</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>3.3402285821206868E-5</v>
+        <v>9.1022118012182654E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1707,11 +1705,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>6.1441746022147182E-6</v>
+        <v>5.5277863692359955E-4</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>1.2288273702666351E-5</v>
+        <v>5.5247307270216042E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1720,11 +1718,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>2.2603242979035746E-6</v>
+        <v>3.3535013046647811E-4</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>4.5206383776752853E-6</v>
+        <v>3.3523767075647424E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1733,11 +1731,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>8.3152802766413209E-7</v>
+        <v>2.0342697805520653E-4</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>1.6630546724505427E-6</v>
+        <v>2.0338559551980585E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1746,11 +1744,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>3.0590222692562472E-7</v>
+        <v>1.2339457598623172E-4</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>6.118042666989046E-7</v>
+        <v>1.2337934976484891E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1759,11 +1757,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1.1253516205509499E-7</v>
+        <v>7.4846227510611229E-5</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>2.2507029878186457E-7</v>
+        <v>7.4840625552838663E-5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1772,11 +1770,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>4.1399375473943306E-8</v>
+        <v>4.5397868702434395E-5</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>8.2798747520070032E-8</v>
+        <v>4.5395807735951673E-5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1785,11 +1783,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>1.5229979512760349E-8</v>
+        <v>2.7535691114583473E-5</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>3.0459958561616146E-8</v>
+        <v>2.7534932900298316E-5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1798,11 +1796,11 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>5.6027964061459406E-9</v>
+        <v>1.6701421848095181E-5</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>1.1205592749509225E-8</v>
+        <v>1.6701142910603434E-5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1811,11 +1809,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>2.0611536181902037E-9</v>
+        <v>1.0129990980873921E-5</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>4.1223072278836992E-9</v>
+        <v>1.012988836415665E-5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1824,11 +1822,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>7.5825604221623851E-10</v>
+        <v>6.1441746022147182E-6</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>1.5165120832825725E-9</v>
+        <v>6.1441368513331755E-6</v>
       </c>
     </row>
   </sheetData>

--- a/ActivationFunctions/Sigmoid.xlsx
+++ b/ActivationFunctions/Sigmoid.xlsx
@@ -81,6 +81,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
+  <c:style val="1"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -89,6 +90,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$1:$A$41</c:f>
@@ -228,127 +232,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>0.99995460213129761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99992515377248947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99987660542401369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9997965730219448</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.99966464986953363</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.9994472213630764</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.9990889488055994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.99849881774326299</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>0.99752737684336534</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.99592986228410396</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>0.99330714907571527</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0.98901305736940681</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>0.98201379003790845</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>0.97068776924864364</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>0.95257412682243336</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.92414181997875655</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>0.88079707797788231</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>0.81757447619364365</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>0.7310585786300049</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>0.62245933120185459</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>0.37754066879814541</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>0.2689414213699951</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>0.18242552380635635</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>0.11920292202211755</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>7.5858180021243546E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>4.7425873177566781E-2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>2.9312230751356319E-2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>1.7986209962091559E-2</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>1.098694263059318E-2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>6.6928509242848554E-3</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>4.0701377158961277E-3</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>2.4726231566347743E-3</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>1.5011822567369917E-3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>9.1105119440064539E-4</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>5.5277863692359955E-4</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>3.3535013046647811E-4</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>2.0342697805520653E-4</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>1.2339457598623172E-4</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>7.4846227510611229E-5</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>4.5397868702434395E-5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.7535691114583473E-5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.6701421848095181E-5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.0129990980873921E-5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.1441746022147182E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,23 +364,25 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="127453824"/>
-        <c:axId val="127467904"/>
+        <c:axId val="120899456"/>
+        <c:axId val="120900992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127453824"/>
+        <c:axId val="120899456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127467904"/>
+        <c:crossAx val="120900992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127467904"/>
+        <c:axId val="120900992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -385,23 +391,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127453824"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="120899456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -611,127 +613,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>4.5395807735907655E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4840625552755166E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2337934976493025E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0338559551979826E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3.3523767075636815E-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>5.5247307270216183E-4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>9.1022118012178404E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>1.4989287085690683E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>2.4665092913599309E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>4.0535716948696789E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>6.6480566707900332E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>1.0866229722225243E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>1.7662706213291107E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>2.8453023879735598E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>4.5176659730911999E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>7.0103716545108066E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>0.10499358540350662</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>0.14914645207033286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.19661193324148185</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.23500371220159449</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.23500371220159449</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.19661193324148185</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.23500371220159449</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23500371220159449</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19661193324148185</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.14914645207033286</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>0.10499358540350651</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>7.010371654510815E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>4.5176659730912137E-2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>2.845302387973556E-2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>1.7662706213291118E-2</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>1.0866229722225234E-2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>6.6480566707901546E-3</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>4.0535716948697674E-3</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>2.466509291360048E-3</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>1.4989287085690496E-3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>9.1022118012182654E-4</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>5.5247307270216042E-4</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>3.3523767075647424E-4</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>2.0338559551980585E-4</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>1.2337934976484891E-4</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>7.4840625552838663E-5</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>4.5395807735951673E-5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.7534932900298316E-5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.6701142910603434E-5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.012988836415665E-5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.1441368513331755E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,11 +745,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="127531648"/>
-        <c:axId val="128459136"/>
+        <c:axId val="120975744"/>
+        <c:axId val="120978432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127531648"/>
+        <c:axId val="120975744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,12 +804,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128459136"/>
+        <c:crossAx val="120978432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128459136"/>
+        <c:axId val="120978432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +864,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127531648"/>
+        <c:crossAx val="120975744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -911,7 +913,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -922,22 +924,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>733424</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,23 +959,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1284,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1296,11 +1298,11 @@
       </c>
       <c r="B1">
         <f>(1/(1+EXP((-(A1+$E$2))/$E$1)))</f>
-        <v>0.99966464986953363</v>
+        <v>0.99995460213129761</v>
       </c>
       <c r="C1">
         <f>(1/$E$1)*(1/(1+EXP((-A1-$E$2)/$E$1)))*(1-(1/(1+EXP((-A1-$E$2)/$E$1))))</f>
-        <v>3.3523767075636815E-4</v>
+        <v>4.5395807735907655E-5</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -1312,14 +1314,14 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B41" si="0">(1/(1+EXP((-(A2+$E$2))/$E$1)))</f>
-        <v>0.9994472213630764</v>
+        <v>0.99992515377248947</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C41" si="1">(1/$E$1)*(1/(1+EXP((-A2-$E$2)/$E$1)))*(1-(1/(1+EXP((-A2-$E$2)/$E$1))))</f>
-        <v>5.5247307270216183E-4</v>
+        <v>7.4840625552755166E-5</v>
       </c>
       <c r="E2">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1328,11 +1330,11 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>0.9990889488055994</v>
+        <v>0.99987660542401369</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>9.1022118012178404E-4</v>
+        <v>1.2337934976493025E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1341,11 +1343,11 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.99849881774326299</v>
+        <v>0.9997965730219448</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>1.4989287085690683E-3</v>
+        <v>2.0338559551979826E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1354,11 +1356,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.99752737684336534</v>
+        <v>0.99966464986953363</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>2.4665092913599309E-3</v>
+        <v>3.3523767075636815E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1367,11 +1369,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.99592986228410396</v>
+        <v>0.9994472213630764</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>4.0535716948696789E-3</v>
+        <v>5.5247307270216183E-4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1380,11 +1382,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.99330714907571527</v>
+        <v>0.9990889488055994</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>6.6480566707900332E-3</v>
+        <v>9.1022118012178404E-4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1393,11 +1395,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.98901305736940681</v>
+        <v>0.99849881774326299</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>1.0866229722225243E-2</v>
+        <v>1.4989287085690683E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1406,11 +1408,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.98201379003790845</v>
+        <v>0.99752737684336534</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>1.7662706213291107E-2</v>
+        <v>2.4665092913599309E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1419,11 +1421,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0.97068776924864364</v>
+        <v>0.99592986228410396</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>2.8453023879735598E-2</v>
+        <v>4.0535716948696789E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1432,11 +1434,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.95257412682243336</v>
+        <v>0.99330714907571527</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>4.5176659730911999E-2</v>
+        <v>6.6480566707900332E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1445,11 +1447,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.92414181997875655</v>
+        <v>0.98901305736940681</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>7.0103716545108066E-2</v>
+        <v>1.0866229722225243E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1458,11 +1460,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.88079707797788231</v>
+        <v>0.98201379003790845</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0.10499358540350662</v>
+        <v>1.7662706213291107E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1471,11 +1473,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.81757447619364365</v>
+        <v>0.97068776924864364</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.14914645207033286</v>
+        <v>2.8453023879735598E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1484,11 +1486,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.7310585786300049</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.19661193324148185</v>
+        <v>4.5176659730911999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1497,11 +1499,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.62245933120185459</v>
+        <v>0.92414181997875655</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.23500371220159449</v>
+        <v>7.0103716545108066E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1510,11 +1512,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.88079707797788231</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.10499358540350662</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1523,11 +1525,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0.37754066879814541</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.23500371220159449</v>
+        <v>0.14914645207033286</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1536,7 +1538,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.2689414213699951</v>
+        <v>0.7310585786300049</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -1549,11 +1551,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.18242552380635635</v>
+        <v>0.62245933120185459</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.14914645207033286</v>
+        <v>0.23500371220159449</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1562,11 +1564,11 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0.11920292202211755</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.10499358540350651</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1575,11 +1577,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>7.5858180021243546E-2</v>
+        <v>0.37754066879814541</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>7.010371654510815E-2</v>
+        <v>0.23500371220159449</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1588,11 +1590,11 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>4.7425873177566781E-2</v>
+        <v>0.2689414213699951</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>4.5176659730912137E-2</v>
+        <v>0.19661193324148185</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1601,11 +1603,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>2.9312230751356319E-2</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>2.845302387973556E-2</v>
+        <v>0.14914645207033286</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1614,11 +1616,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1.7986209962091559E-2</v>
+        <v>0.11920292202211755</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>1.7662706213291118E-2</v>
+        <v>0.10499358540350651</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1627,11 +1629,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1.098694263059318E-2</v>
+        <v>7.5858180021243546E-2</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>1.0866229722225234E-2</v>
+        <v>7.010371654510815E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1640,11 +1642,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>6.6928509242848554E-3</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>6.6480566707901546E-3</v>
+        <v>4.5176659730912137E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1653,11 +1655,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>4.0701377158961277E-3</v>
+        <v>2.9312230751356319E-2</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>4.0535716948697674E-3</v>
+        <v>2.845302387973556E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1666,11 +1668,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>2.4726231566347743E-3</v>
+        <v>1.7986209962091559E-2</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>2.466509291360048E-3</v>
+        <v>1.7662706213291118E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1679,11 +1681,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1.5011822567369917E-3</v>
+        <v>1.098694263059318E-2</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>1.4989287085690496E-3</v>
+        <v>1.0866229722225234E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1692,11 +1694,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>9.1105119440064539E-4</v>
+        <v>6.6928509242848554E-3</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>9.1022118012182654E-4</v>
+        <v>6.6480566707901546E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1705,11 +1707,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>5.5277863692359955E-4</v>
+        <v>4.0701377158961277E-3</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>5.5247307270216042E-4</v>
+        <v>4.0535716948697674E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1718,11 +1720,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>3.3535013046647811E-4</v>
+        <v>2.4726231566347743E-3</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>3.3523767075647424E-4</v>
+        <v>2.466509291360048E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1731,11 +1733,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>2.0342697805520653E-4</v>
+        <v>1.5011822567369917E-3</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>2.0338559551980585E-4</v>
+        <v>1.4989287085690496E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1744,11 +1746,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1.2339457598623172E-4</v>
+        <v>9.1105119440064539E-4</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>1.2337934976484891E-4</v>
+        <v>9.1022118012182654E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1757,11 +1759,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>7.4846227510611229E-5</v>
+        <v>5.5277863692359955E-4</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>7.4840625552838663E-5</v>
+        <v>5.5247307270216042E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1770,11 +1772,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>4.5397868702434395E-5</v>
+        <v>3.3535013046647811E-4</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>4.5395807735951673E-5</v>
+        <v>3.3523767075647424E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1783,11 +1785,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>2.7535691114583473E-5</v>
+        <v>2.0342697805520653E-4</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>2.7534932900298316E-5</v>
+        <v>2.0338559551980585E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1796,11 +1798,11 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>1.6701421848095181E-5</v>
+        <v>1.2339457598623172E-4</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>1.6701142910603434E-5</v>
+        <v>1.2337934976484891E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1809,11 +1811,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>1.0129990980873921E-5</v>
+        <v>7.4846227510611229E-5</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>1.012988836415665E-5</v>
+        <v>7.4840625552838663E-5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1822,11 +1824,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>6.1441746022147182E-6</v>
+        <v>4.5397868702434395E-5</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>6.1441368513331755E-6</v>
+        <v>4.5395807735951673E-5</v>
       </c>
     </row>
   </sheetData>
